--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7488" uniqueCount="469">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -880,6 +880,9 @@
   </si>
   <si>
     <t>Bundle.entry:messageheader.fullUrl</t>
+  </si>
+  <si>
+    <t>Uri de identificación dentro del Bundle</t>
   </si>
   <si>
     <t>Bundle.entry:messageheader.resource</t>
@@ -7866,7 +7869,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>77</v>
@@ -7878,7 +7881,7 @@
         <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>191</v>
@@ -7963,7 +7966,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>193</v>
@@ -7989,13 +7992,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8061,10 +8064,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8075,7 +8078,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>197</v>
@@ -8187,7 +8190,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>201</v>
@@ -8299,7 +8302,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>202</v>
@@ -8413,7 +8416,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>203</v>
@@ -8529,7 +8532,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>204</v>
@@ -8643,7 +8646,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>210</v>
@@ -8757,7 +8760,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>215</v>
@@ -8869,7 +8872,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>219</v>
@@ -8981,7 +8984,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>220</v>
@@ -9095,7 +9098,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>221</v>
@@ -9211,7 +9214,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>222</v>
@@ -9323,7 +9326,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>227</v>
@@ -9437,7 +9440,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>231</v>
@@ -9549,7 +9552,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>234</v>
@@ -9661,7 +9664,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>236</v>
@@ -9773,7 +9776,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>239</v>
@@ -9885,7 +9888,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>242</v>
@@ -9997,7 +10000,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>246</v>
@@ -10109,7 +10112,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>247</v>
@@ -10223,7 +10226,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>248</v>
@@ -10339,7 +10342,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>249</v>
@@ -10451,7 +10454,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>252</v>
@@ -10563,7 +10566,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>255</v>
@@ -10677,7 +10680,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>259</v>
@@ -10791,7 +10794,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>263</v>
@@ -10905,13 +10908,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10936,7 +10939,7 @@
         <v>145</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>179</v>
@@ -11019,7 +11022,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>183</v>
@@ -11131,7 +11134,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>184</v>
@@ -11245,7 +11248,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>185</v>
@@ -11361,7 +11364,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>186</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>189</v>
@@ -11484,13 +11487,13 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11502,7 +11505,7 @@
         <v>101</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>191</v>
@@ -11587,14 +11590,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11613,13 +11616,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11685,10 +11688,10 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -11699,7 +11702,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>197</v>
@@ -11811,7 +11814,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>201</v>
@@ -11923,7 +11926,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>202</v>
@@ -12037,7 +12040,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>203</v>
@@ -12153,7 +12156,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>204</v>
@@ -12267,7 +12270,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>210</v>
@@ -12381,7 +12384,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>215</v>
@@ -12493,7 +12496,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>219</v>
@@ -12605,7 +12608,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>220</v>
@@ -12719,7 +12722,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>221</v>
@@ -12835,7 +12838,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>222</v>
@@ -12947,7 +12950,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>227</v>
@@ -13061,7 +13064,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>231</v>
@@ -13173,7 +13176,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>234</v>
@@ -13285,7 +13288,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>236</v>
@@ -13397,7 +13400,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>239</v>
@@ -13509,7 +13512,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>242</v>
@@ -13621,7 +13624,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>246</v>
@@ -13733,7 +13736,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>247</v>
@@ -13847,7 +13850,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>248</v>
@@ -13963,7 +13966,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>249</v>
@@ -14075,7 +14078,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>252</v>
@@ -14187,7 +14190,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>255</v>
@@ -14301,7 +14304,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>259</v>
@@ -14415,7 +14418,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>263</v>
@@ -14529,13 +14532,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14560,7 +14563,7 @@
         <v>145</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>179</v>
@@ -14643,7 +14646,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>183</v>
@@ -14755,7 +14758,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>184</v>
@@ -14869,7 +14872,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>185</v>
@@ -14985,7 +14988,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>186</v>
@@ -15097,7 +15100,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>189</v>
@@ -15108,13 +15111,13 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>77</v>
@@ -15126,7 +15129,7 @@
         <v>101</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>191</v>
@@ -15211,7 +15214,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>193</v>
@@ -15237,13 +15240,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15309,10 +15312,10 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
@@ -15323,7 +15326,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>197</v>
@@ -15435,7 +15438,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>201</v>
@@ -15547,7 +15550,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>202</v>
@@ -15661,7 +15664,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>203</v>
@@ -15777,7 +15780,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>204</v>
@@ -15891,7 +15894,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>210</v>
@@ -16005,7 +16008,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>215</v>
@@ -16117,7 +16120,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>219</v>
@@ -16229,7 +16232,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>220</v>
@@ -16343,7 +16346,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>221</v>
@@ -16459,7 +16462,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>222</v>
@@ -16571,7 +16574,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>227</v>
@@ -16685,7 +16688,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>231</v>
@@ -16797,7 +16800,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>234</v>
@@ -16909,7 +16912,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>236</v>
@@ -17021,7 +17024,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>239</v>
@@ -17133,7 +17136,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>242</v>
@@ -17245,7 +17248,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>246</v>
@@ -17357,7 +17360,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>247</v>
@@ -17471,7 +17474,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>248</v>
@@ -17587,7 +17590,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>249</v>
@@ -17699,7 +17702,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>252</v>
@@ -17811,7 +17814,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>255</v>
@@ -17925,7 +17928,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>259</v>
@@ -18039,7 +18042,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>263</v>
@@ -18153,13 +18156,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -18169,7 +18172,7 @@
         <v>87</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>77</v>
@@ -18184,7 +18187,7 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>179</v>
@@ -18267,7 +18270,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>183</v>
@@ -18379,7 +18382,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>184</v>
@@ -18493,7 +18496,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>185</v>
@@ -18609,7 +18612,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>186</v>
@@ -18721,7 +18724,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>189</v>
@@ -18732,13 +18735,13 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>77</v>
@@ -18750,7 +18753,7 @@
         <v>101</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>191</v>
@@ -18835,7 +18838,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>193</v>
@@ -18861,13 +18864,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -18933,10 +18936,10 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>77</v>
@@ -18947,7 +18950,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>197</v>
@@ -19059,7 +19062,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>201</v>
@@ -19171,7 +19174,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>202</v>
@@ -19285,7 +19288,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>203</v>
@@ -19401,7 +19404,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>204</v>
@@ -19515,7 +19518,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>210</v>
@@ -19629,7 +19632,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>215</v>
@@ -19741,7 +19744,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>219</v>
@@ -19853,7 +19856,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>220</v>
@@ -19967,7 +19970,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>221</v>
@@ -20083,7 +20086,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>222</v>
@@ -20195,7 +20198,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>227</v>
@@ -20309,7 +20312,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>231</v>
@@ -20421,7 +20424,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>234</v>
@@ -20533,7 +20536,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>236</v>
@@ -20645,7 +20648,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>239</v>
@@ -20757,7 +20760,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>242</v>
@@ -20869,7 +20872,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>246</v>
@@ -20981,7 +20984,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>247</v>
@@ -21095,7 +21098,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>248</v>
@@ -21211,7 +21214,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>249</v>
@@ -21323,7 +21326,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>252</v>
@@ -21435,7 +21438,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>255</v>
@@ -21549,7 +21552,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>259</v>
@@ -21663,7 +21666,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>263</v>
@@ -21777,13 +21780,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -21793,7 +21796,7 @@
         <v>87</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>77</v>
@@ -21808,7 +21811,7 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>179</v>
@@ -21891,7 +21894,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>183</v>
@@ -22003,7 +22006,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>184</v>
@@ -22117,7 +22120,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>185</v>
@@ -22233,7 +22236,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>186</v>
@@ -22345,7 +22348,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>189</v>
@@ -22356,13 +22359,13 @@
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>77</v>
@@ -22374,7 +22377,7 @@
         <v>101</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>191</v>
@@ -22459,7 +22462,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>193</v>
@@ -22485,13 +22488,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22557,10 +22560,10 @@
         <v>77</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22571,7 +22574,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>197</v>
@@ -22683,7 +22686,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>201</v>
@@ -22795,7 +22798,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>202</v>
@@ -22909,7 +22912,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>203</v>
@@ -23025,7 +23028,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>204</v>
@@ -23139,7 +23142,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>210</v>
@@ -23253,7 +23256,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>215</v>
@@ -23365,7 +23368,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>219</v>
@@ -23477,7 +23480,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>220</v>
@@ -23591,7 +23594,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>221</v>
@@ -23707,7 +23710,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>222</v>
@@ -23819,7 +23822,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>227</v>
@@ -23933,7 +23936,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>231</v>
@@ -24045,7 +24048,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>234</v>
@@ -24157,7 +24160,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>236</v>
@@ -24269,7 +24272,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>239</v>
@@ -24381,7 +24384,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>242</v>
@@ -24493,7 +24496,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>246</v>
@@ -24605,7 +24608,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>247</v>
@@ -24719,7 +24722,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>248</v>
@@ -24835,7 +24838,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>249</v>
@@ -24947,7 +24950,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>252</v>
@@ -25059,7 +25062,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>255</v>
@@ -25173,7 +25176,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>259</v>
@@ -25287,7 +25290,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>263</v>
@@ -25401,10 +25404,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -25427,19 +25430,19 @@
         <v>88</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
@@ -25488,7 +25491,7 @@
         <v>77</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>78</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -625,7 +625,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundlePriorizarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1797,17 +1797,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.49609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1816,26 +1816,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.0625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.46875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7303,7 +7303,7 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>77</v>
@@ -10927,7 +10927,7 @@
         <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>77</v>
@@ -14551,7 +14551,7 @@
         <v>87</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>77</v>
@@ -18175,7 +18175,7 @@
         <v>388</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>77</v>
@@ -21799,7 +21799,7 @@
         <v>388</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>77</v>
